--- a/public/excel/Sample-Exercise.xlsx
+++ b/public/excel/Sample-Exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shalahudin Al Ayyub\Documents\Klassiq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215F7D1-34FE-4CC0-B04F-58933C3936E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406DDE2-A08F-494B-995D-B6D2D66F91AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9264F1A3-570B-41A4-8AE8-AB0DB4E1452B}"/>
+    <workbookView xWindow="3975" yWindow="3960" windowWidth="20490" windowHeight="10920" xr2:uid="{9264F1A3-570B-41A4-8AE8-AB0DB4E1452B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>Wrong Score</t>
   </si>
   <si>
-    <t>Listen to the conversation. Where did Agus get back from?</t>
-  </si>
-  <si>
-    <t>https://mcdn.podbean.com/mf/web/24psp6/2_Navigating_the_path_to_fluency64292.mp3</t>
-  </si>
-  <si>
     <t>Market</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Exercise Name</t>
   </si>
   <si>
-    <t>Latihan Mingguan</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>["Cinema","Market","Coffe shop","Restaurant"]</t>
+  </si>
+  <si>
+    <t>Latihan Mingguan 123</t>
+  </si>
+  <si>
+    <t>Listen to the conversation. Where did Agus get back from?123</t>
+  </si>
+  <si>
+    <t>["https://mcdn.podbean.com/mf/web/24psp6/2_Navigating_the_path_to_fluency64292.mp3"]</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -540,10 +540,10 @@
     </row>
     <row r="3" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -554,10 +554,10 @@
     </row>
     <row r="4" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -600,19 +600,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{8C0FA4D4-EE42-4351-84CF-874830AB957A}"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://mcdn.podbean.com/mf/web/24psp6/2_Navigating_the_path_to_fluency64292.mp3" xr:uid="{8C0FA4D4-EE42-4351-84CF-874830AB957A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
